--- a/Lab_3/Segway_files/Outputs/output9.xlsx
+++ b/Lab_3/Segway_files/Outputs/output9.xlsx
@@ -409,28 +409,28 @@
     </row>
     <row r="2" spans="2:10">
       <c r="B2">
-        <v>713.3886852758051</v>
+        <v>12972.56561758248</v>
       </c>
       <c r="C2">
-        <v>801.2072211870344</v>
+        <v>12542.42829082502</v>
       </c>
       <c r="D2">
-        <v>-0.001686433743367213</v>
+        <v>0.007369635986312429</v>
       </c>
       <c r="E2">
-        <v>-0.9594092070129456</v>
+        <v>-0.9963198062516653</v>
       </c>
       <c r="F2">
-        <v>0.02403673641850396</v>
+        <v>-0.03924944594963852</v>
       </c>
       <c r="G2">
-        <v>316.61</v>
+        <v>7073.559999999999</v>
       </c>
       <c r="H2">
-        <v>799.78</v>
+        <v>12999.95</v>
       </c>
       <c r="I2">
-        <v>-0.0026</v>
+        <v>0.000738</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,376 +438,376 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3">
-        <v>663.6467577960259</v>
+        <v>12641.83326860392</v>
       </c>
       <c r="C3">
-        <v>801.1439591462464</v>
+        <v>13362.4728556042</v>
       </c>
       <c r="D3">
-        <v>-0.2113665278203517</v>
+        <v>-0.3517501635727042</v>
       </c>
       <c r="E3">
-        <v>-1.005698351512017</v>
+        <v>-1.039450919857105</v>
       </c>
       <c r="F3">
-        <v>-0.04211406726536222</v>
+        <v>-0.0920665815145804</v>
       </c>
       <c r="G3">
-        <v>333.0161945469063</v>
+        <v>7238.278705143463</v>
       </c>
       <c r="H3">
-        <v>799.7373437980593</v>
+        <v>13000.07156242647</v>
       </c>
       <c r="I3">
-        <v>-0.05468333333333333</v>
+        <v>-0.08805916981132075</v>
       </c>
       <c r="J3">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4">
-        <v>646.5487340425394</v>
+        <v>13079.30446276985</v>
       </c>
       <c r="C4">
-        <v>804.4987901903095</v>
+        <v>13263.70076286285</v>
       </c>
       <c r="D4">
-        <v>-0.4139076885129469</v>
+        <v>-0.7063185200206772</v>
       </c>
       <c r="E4">
-        <v>-0.9761279479809402</v>
+        <v>-0.9910087606854927</v>
       </c>
       <c r="F4">
-        <v>-0.1608319540980528</v>
+        <v>-0.2692705164803738</v>
       </c>
       <c r="G4">
-        <v>365.779647703606</v>
+        <v>7566.439732382817</v>
       </c>
       <c r="H4">
-        <v>797.9439410271407</v>
+        <v>12971.09904773648</v>
       </c>
       <c r="I4">
-        <v>-0.15885</v>
+        <v>-0.2656535094339623</v>
       </c>
       <c r="J4">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
-        <v>628.9725667318064</v>
+        <v>13945.98420924942</v>
       </c>
       <c r="C5">
-        <v>810.8915235100053</v>
+        <v>15361.16727039685</v>
       </c>
       <c r="D5">
-        <v>-0.6191261001162875</v>
+        <v>-1.061691088712129</v>
       </c>
       <c r="E5">
-        <v>-0.9644979168846761</v>
+        <v>-0.8638745166431194</v>
       </c>
       <c r="F5">
-        <v>-0.321852593362784</v>
+        <v>-0.5234819473644674</v>
       </c>
       <c r="G5">
-        <v>414.3787260844962</v>
+        <v>8043.26154181866</v>
       </c>
       <c r="H5">
-        <v>790.1583818249645</v>
+        <v>12841.36331071544</v>
       </c>
       <c r="I5">
-        <v>-0.3151</v>
+        <v>-0.5320450188679245</v>
       </c>
       <c r="J5">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
-        <v>610.5361042924773</v>
+        <v>16611.21930975339</v>
       </c>
       <c r="C6">
-        <v>850.6315800834545</v>
+        <v>12092.84984288191</v>
       </c>
       <c r="D6">
-        <v>-0.6274605783715851</v>
+        <v>-1.065352867272228</v>
       </c>
       <c r="E6">
-        <v>-0.8800259989906946</v>
+        <v>-0.680359832795932</v>
       </c>
       <c r="F6">
-        <v>-0.459848929894673</v>
+        <v>-0.7387163699311698</v>
       </c>
       <c r="G6">
-        <v>461.1742102472455</v>
+        <v>8469.111285875997</v>
       </c>
       <c r="H6">
-        <v>774.9049227570551</v>
+        <v>12590.67945622863</v>
       </c>
       <c r="I6">
-        <v>-0.47135</v>
+        <v>-0.7984365283018868</v>
       </c>
       <c r="J6">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7">
-        <v>612.8560299752705</v>
+        <v>14303.80833796267</v>
       </c>
       <c r="C7">
-        <v>842.7001620032546</v>
+        <v>10325.7273014155</v>
       </c>
       <c r="D7">
-        <v>-0.6225124775941457</v>
+        <v>-1.066373898340195</v>
       </c>
       <c r="E7">
-        <v>-0.8217297436590048</v>
+        <v>-0.4903557027585802</v>
       </c>
       <c r="F7">
-        <v>-0.5979562904390423</v>
+        <v>-0.8534618222310465</v>
       </c>
       <c r="G7">
-        <v>505.0259547828868</v>
+        <v>8813.947068523961</v>
       </c>
       <c r="H7">
-        <v>752.5552056952364</v>
+        <v>12236.73216860005</v>
       </c>
       <c r="I7">
-        <v>-0.6275999999999999</v>
+        <v>-1.064828037735849</v>
       </c>
       <c r="J7">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8">
-        <v>608.5574956265281</v>
+        <v>12362.04890992612</v>
       </c>
       <c r="C8">
-        <v>767.2848600155609</v>
+        <v>9487.158224466782</v>
       </c>
       <c r="D8">
-        <v>-0.6263326885032314</v>
+        <v>-1.058284357316989</v>
       </c>
       <c r="E8">
-        <v>-0.7313682380080005</v>
+        <v>-0.244775624381407</v>
       </c>
       <c r="F8">
-        <v>-0.708825827425473</v>
+        <v>-0.9591127972253911</v>
       </c>
       <c r="G8">
-        <v>544.8655368275041</v>
+        <v>9053.442185626649</v>
       </c>
       <c r="H8">
-        <v>723.6537688092837</v>
+        <v>11804.49093005608</v>
       </c>
       <c r="I8">
-        <v>-0.7838499999999999</v>
+        <v>-1.331219547169811</v>
       </c>
       <c r="J8">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>719.1716011611965</v>
+        <v>11386.36969249542</v>
       </c>
       <c r="C9">
-        <v>736.0034944786055</v>
+        <v>9324.294716027531</v>
       </c>
       <c r="D9">
-        <v>-0.6252258245978312</v>
+        <v>-1.069547987273041</v>
       </c>
       <c r="E9">
-        <v>-0.5991129672587781</v>
+        <v>0.02694845008051667</v>
       </c>
       <c r="F9">
-        <v>-0.8066026007905561</v>
+        <v>-0.9773396257955521</v>
       </c>
       <c r="G9">
-        <v>579.7222875788397</v>
+        <v>9170.701270899817</v>
       </c>
       <c r="H9">
-        <v>688.9047792035158</v>
+        <v>11324.44852949654</v>
       </c>
       <c r="I9">
-        <v>-0.9400999999999999</v>
+        <v>4.685574250575813</v>
       </c>
       <c r="J9">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10">
-        <v>736.4609102778072</v>
+        <v>11495.93474287131</v>
       </c>
       <c r="C10">
-        <v>702.490077375745</v>
+        <v>9429.502513358975</v>
       </c>
       <c r="D10">
-        <v>-0.6301746135434224</v>
+        <v>-1.058454861303864</v>
       </c>
       <c r="E10">
-        <v>-0.4448086875807746</v>
+        <v>0.3086078926025461</v>
       </c>
       <c r="F10">
-        <v>-0.8848487888602744</v>
+        <v>-0.9643970079257038</v>
       </c>
       <c r="G10">
-        <v>608.7469420906771</v>
+        <v>9157.452192452794</v>
       </c>
       <c r="H10">
-        <v>649.1548762850057</v>
+        <v>10830.46992537044</v>
       </c>
       <c r="I10">
-        <v>-1.09635</v>
+        <v>4.419182741141851</v>
       </c>
       <c r="J10">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>665.2285201310552</v>
+        <v>12193.76069054013</v>
       </c>
       <c r="C11">
-        <v>662.0889070434721</v>
+        <v>10414.50778530404</v>
       </c>
       <c r="D11">
-        <v>-0.6193057634694999</v>
+        <v>-1.064941303331748</v>
       </c>
       <c r="E11">
-        <v>-0.2796724644754032</v>
+        <v>0.5427968710572297</v>
       </c>
       <c r="F11">
-        <v>-0.9496002416652313</v>
+        <v>-0.8403078313999852</v>
       </c>
       <c r="G11">
-        <v>631.2323311311856</v>
+        <v>9014.629616662078</v>
       </c>
       <c r="H11">
-        <v>605.3725438750087</v>
+        <v>10357.40321627059</v>
       </c>
       <c r="I11">
-        <v>-1.2526</v>
+        <v>4.152791231707889</v>
       </c>
       <c r="J11">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12">
-        <v>560.8628708855895</v>
+        <v>11956.1566706402</v>
       </c>
       <c r="C12">
-        <v>639.1804700114026</v>
+        <v>13218.67481131567</v>
       </c>
       <c r="D12">
-        <v>-0.6243716261043377</v>
+        <v>-1.068489947310289</v>
       </c>
       <c r="E12">
-        <v>-0.158543827511482</v>
+        <v>0.7354005518216973</v>
       </c>
       <c r="F12">
-        <v>-0.9336613225501802</v>
+        <v>-0.6855336590444429</v>
       </c>
       <c r="G12">
-        <v>646.6306109598407</v>
+        <v>8752.309071416648</v>
       </c>
       <c r="H12">
-        <v>558.6245136503999</v>
+        <v>9938.621255154538</v>
       </c>
       <c r="I12">
-        <v>-1.40885</v>
+        <v>3.886399722273927</v>
       </c>
       <c r="J12">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>533.3776856187833</v>
+        <v>10080.2876809435</v>
       </c>
       <c r="C13">
-        <v>642.4043522454159</v>
+        <v>11985.78236461723</v>
       </c>
       <c r="D13">
-        <v>-0.42289324822845</v>
+        <v>-0.7125905507579117</v>
       </c>
       <c r="E13">
-        <v>-0.04761076239613866</v>
+        <v>0.8407356546757196</v>
       </c>
       <c r="F13">
-        <v>-1.031054491647293</v>
+        <v>-0.5276434302563282</v>
       </c>
       <c r="G13">
-        <v>651.9212778060725</v>
+        <v>8510.100464001427</v>
       </c>
       <c r="H13">
-        <v>526.2413544380533</v>
+        <v>9715.318642316646</v>
       </c>
       <c r="I13">
-        <v>-1.513016666666667</v>
+        <v>3.708805382651285</v>
       </c>
       <c r="J13">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14">
-        <v>500.6401667646086</v>
+        <v>9305.475098565208</v>
       </c>
       <c r="C14">
-        <v>621.3553304546682</v>
+        <v>11930.86688762957</v>
       </c>
       <c r="D14">
-        <v>-0.204077000169422</v>
+        <v>-0.3581997524808231</v>
       </c>
       <c r="E14">
-        <v>0.0045236186839058</v>
+        <v>0.8812749365314986</v>
       </c>
       <c r="F14">
-        <v>-1.011749955015378</v>
+        <v>-0.4716756088778929</v>
       </c>
       <c r="G14">
-        <v>652.8686979909917</v>
+        <v>8371.176373159706</v>
       </c>
       <c r="H14">
-        <v>509.8624828635001</v>
+        <v>9626.818000593756</v>
       </c>
       <c r="I14">
-        <v>-1.5651</v>
+        <v>3.620008212839965</v>
       </c>
       <c r="J14">
-        <v>-0.2083333333333333</v>
+        <v>-0.355188679245283</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>512.937050389416</v>
+        <v>9671.109944080717</v>
       </c>
       <c r="C15">
-        <v>646.4894652476094</v>
+        <v>11686.62529600267</v>
       </c>
       <c r="D15">
-        <v>-0.006948973756553274</v>
+        <v>0.0003359185451505727</v>
       </c>
       <c r="E15">
-        <v>-0.007217555313210293</v>
+        <v>0.9099227128951215</v>
       </c>
       <c r="F15">
-        <v>-1.000556743128919</v>
+        <v>-0.4723127553609187</v>
       </c>
       <c r="G15">
-        <v>652.8686979909917</v>
+        <v>8371.176373159706</v>
       </c>
       <c r="H15">
-        <v>509.8624828635001</v>
+        <v>9626.818000593756</v>
       </c>
       <c r="I15">
-        <v>-1.5651</v>
+        <v>3.620008212839965</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -815,376 +815,376 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16">
-        <v>511.2015224840341</v>
+        <v>8654.968592148221</v>
       </c>
       <c r="C16">
-        <v>678.7905006194916</v>
+        <v>11022.57956440069</v>
       </c>
       <c r="D16">
-        <v>-0.4134235480965309</v>
+        <v>-0.711416108287743</v>
       </c>
       <c r="E16">
-        <v>0.08484965621524659</v>
+        <v>0.9566035634176643</v>
       </c>
       <c r="F16">
-        <v>-1.011905835861872</v>
+        <v>-0.3065791278200535</v>
       </c>
       <c r="G16">
-        <v>652.9488021533381</v>
+        <v>8245.840633245874</v>
       </c>
       <c r="H16">
-        <v>495.8002110138602</v>
+        <v>9561.819058629271</v>
       </c>
       <c r="I16">
-        <v>4.613918640512919</v>
+        <v>3.442413873217323</v>
       </c>
       <c r="J16">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17">
-        <v>518.1086785595051</v>
+        <v>8064.593812827604</v>
       </c>
       <c r="C17">
-        <v>698.5616731184393</v>
+        <v>10724.20726558591</v>
       </c>
       <c r="D17">
-        <v>-0.8331399636452416</v>
+        <v>-1.413455543484472</v>
       </c>
       <c r="E17">
-        <v>0.2935120546384612</v>
+        <v>1.021792742952171</v>
       </c>
       <c r="F17">
-        <v>-0.9704295566362139</v>
+        <v>0.05379441576183148</v>
       </c>
       <c r="G17">
-        <v>650.183797340247</v>
+        <v>7976.146111825624</v>
       </c>
       <c r="H17">
-        <v>467.8114566045697</v>
+        <v>9478.150033650478</v>
       </c>
       <c r="I17">
-        <v>4.405585307179586</v>
+        <v>3.08722519397204</v>
       </c>
       <c r="J17">
-        <v>-0.8333333333333334</v>
+        <v>-1.420754716981132</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18">
-        <v>557.3101947115016</v>
+        <v>9163.435093688866</v>
       </c>
       <c r="C18">
-        <v>776.6234157404552</v>
+        <v>12184.38393967094</v>
       </c>
       <c r="D18">
-        <v>-1.246553902202439</v>
+        <v>-2.138690872928746</v>
       </c>
       <c r="E18">
-        <v>0.5718523796862754</v>
+        <v>0.8104682261966391</v>
       </c>
       <c r="F18">
-        <v>-0.8192493684796833</v>
+        <v>0.5560964437886646</v>
       </c>
       <c r="G18">
-        <v>637.4426190931929</v>
+        <v>7553.209445043879</v>
       </c>
       <c r="H18">
-        <v>427.593953783947</v>
+        <v>9501.166707993169</v>
       </c>
       <c r="I18">
-        <v>4.093085307179586</v>
+        <v>2.554442175104115</v>
       </c>
       <c r="J18">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19">
-        <v>685.6183768235073</v>
+        <v>11261.04691065817</v>
       </c>
       <c r="C19">
-        <v>763.4242332647183</v>
+        <v>14304.45342470148</v>
       </c>
       <c r="D19">
-        <v>-1.250852186258928</v>
+        <v>-2.130539127610438</v>
       </c>
       <c r="E19">
-        <v>0.8342840480687712</v>
+        <v>0.4170940557913527</v>
       </c>
       <c r="F19">
-        <v>-0.6491792563561647</v>
+        <v>0.9294985904683994</v>
       </c>
       <c r="G19">
-        <v>612.9541129256231</v>
+        <v>7200.584063268347</v>
       </c>
       <c r="H19">
-        <v>393.2413960635836</v>
+        <v>9735.816514159527</v>
       </c>
       <c r="I19">
-        <v>3.780585307179586</v>
+        <v>2.021659156236191</v>
       </c>
       <c r="J19">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20">
-        <v>640.2608503409558</v>
+        <v>9957.739660822001</v>
       </c>
       <c r="C20">
-        <v>650.9978434956134</v>
+        <v>12824.43379614111</v>
       </c>
       <c r="D20">
-        <v>-1.247458699860751</v>
+        <v>-2.133016155322885</v>
       </c>
       <c r="E20">
-        <v>0.922255341218401</v>
+        <v>-0.06547221672197273</v>
       </c>
       <c r="F20">
-        <v>-0.3086254697019412</v>
+        <v>1.003280498915456</v>
       </c>
       <c r="G20">
-        <v>579.0903360433985</v>
+        <v>7016.01996347165</v>
       </c>
       <c r="H20">
-        <v>368.0813131638612</v>
+        <v>10117.05303454088</v>
       </c>
       <c r="I20">
-        <v>3.468085307179586</v>
+        <v>1.488876137368266</v>
       </c>
       <c r="J20">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21">
-        <v>518.0421971176438</v>
+        <v>11591.58407725612</v>
       </c>
       <c r="C21">
-        <v>612.0116955697644</v>
+        <v>15906.45465091273</v>
       </c>
       <c r="D21">
-        <v>-1.252591012089334</v>
+        <v>-2.138461598162985</v>
       </c>
       <c r="E21">
-        <v>0.9958307908818343</v>
+        <v>-0.5960319409791954</v>
       </c>
       <c r="F21">
-        <v>-0.01393502339376208</v>
+        <v>0.7991301055334659</v>
       </c>
       <c r="G21">
-        <v>539.1314728490089</v>
+        <v>7050.679487132277</v>
       </c>
       <c r="H21">
-        <v>354.550813969003</v>
+        <v>10539.19508270224</v>
       </c>
       <c r="I21">
-        <v>3.155585307179586</v>
+        <v>0.9560931185003416</v>
       </c>
       <c r="J21">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22">
-        <v>521.7016598023034</v>
+        <v>14020.9422024678</v>
       </c>
       <c r="C22">
-        <v>692.3411383806636</v>
+        <v>11818.89812028077</v>
       </c>
       <c r="D22">
-        <v>-1.247644444014785</v>
+        <v>-2.128033289321225</v>
       </c>
       <c r="E22">
-        <v>0.9560041181974805</v>
+        <v>-0.9307200399450448</v>
       </c>
       <c r="F22">
-        <v>0.288881800905337</v>
+        <v>0.388408361803134</v>
       </c>
       <c r="G22">
-        <v>496.9481028187877</v>
+        <v>7294.954794009575</v>
       </c>
       <c r="H22">
-        <v>353.9605181588881</v>
+        <v>10885.22219992899</v>
       </c>
       <c r="I22">
-        <v>2.843085307179586</v>
+        <v>0.4233100996324171</v>
       </c>
       <c r="J22">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23">
-        <v>531.6032436841818</v>
+        <v>12058.29516653217</v>
       </c>
       <c r="C23">
-        <v>796.0081967958971</v>
+        <v>11137.55726458134</v>
       </c>
       <c r="D23">
-        <v>-1.255148649031159</v>
+        <v>-2.131629417999047</v>
       </c>
       <c r="E23">
-        <v>0.8115168274826345</v>
+        <v>-0.9910036799955421</v>
       </c>
       <c r="F23">
-        <v>0.5666611023823732</v>
+        <v>-0.09787637869471026</v>
       </c>
       <c r="G23">
-        <v>456.6262802903487</v>
+        <v>7681.131216522007</v>
       </c>
       <c r="H23">
-        <v>366.3676042082014</v>
+        <v>11059.21347011732</v>
       </c>
       <c r="I23">
-        <v>2.530585307179586</v>
+        <v>-0.1094729192355075</v>
       </c>
       <c r="J23">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24">
-        <v>715.1990549106224</v>
+        <v>14850.61544089968</v>
       </c>
       <c r="C24">
-        <v>716.8923325725633</v>
+        <v>13484.99130375084</v>
       </c>
       <c r="D24">
-        <v>-1.260688183906258</v>
+        <v>-2.1295812607033</v>
       </c>
       <c r="E24">
-        <v>0.6151967298251924</v>
+        <v>-0.8146593643524861</v>
       </c>
       <c r="F24">
-        <v>0.7919207171591188</v>
+        <v>-0.5908204393942004</v>
       </c>
       <c r="G24">
-        <v>422.0717424706712</v>
+        <v>8102.158195967821</v>
       </c>
       <c r="H24">
-        <v>390.5702708447207</v>
+        <v>11012.93740735283</v>
       </c>
       <c r="I24">
-        <v>2.218085307179586</v>
+        <v>-0.6422559381034321</v>
       </c>
       <c r="J24">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25">
-        <v>604.8611776857933</v>
+        <v>12256.56596499373</v>
       </c>
       <c r="C25">
-        <v>658.0918633168861</v>
+        <v>9024.95943813427</v>
       </c>
       <c r="D25">
-        <v>-1.254876703889026</v>
+        <v>-2.133422832864192</v>
       </c>
       <c r="E25">
-        <v>0.3141560274872462</v>
+        <v>-0.3988536614444983</v>
       </c>
       <c r="F25">
-        <v>0.9156322318104672</v>
+        <v>-0.9251466965306195</v>
       </c>
       <c r="G25">
-        <v>396.6315837014634</v>
+        <v>8441.324377767276</v>
       </c>
       <c r="H25">
-        <v>424.2241484526205</v>
+        <v>10759.22203034578</v>
       </c>
       <c r="I25">
-        <v>1.905585307179586</v>
+        <v>-1.175038956971357</v>
       </c>
       <c r="J25">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26">
-        <v>606.3950822216611</v>
+        <v>10281.80859386592</v>
       </c>
       <c r="C26">
-        <v>572.2790545996731</v>
+        <v>8748.697216304809</v>
       </c>
       <c r="D26">
-        <v>-0.8284453966144792</v>
+        <v>-1.411948813730735</v>
       </c>
       <c r="E26">
-        <v>0.1187641408341477</v>
+        <v>-0.03102158983055962</v>
       </c>
       <c r="F26">
-        <v>0.9977264802159242</v>
+        <v>-1.015523334251205</v>
       </c>
       <c r="G26">
-        <v>387.3905560105353</v>
+        <v>8550.181953070662</v>
       </c>
       <c r="H26">
-        <v>450.787639040559</v>
+        <v>10498.67324619189</v>
       </c>
       <c r="I26">
-        <v>1.697251973846253</v>
+        <v>-1.53022763621664</v>
       </c>
       <c r="J26">
-        <v>-0.8333333333333334</v>
+        <v>-1.420754716981132</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27">
-        <v>546.4191511782776</v>
+        <v>10552.45752149879</v>
       </c>
       <c r="C27">
-        <v>592.0743029649959</v>
+        <v>8924.447179505638</v>
       </c>
       <c r="D27">
-        <v>-0.4163345200275161</v>
+        <v>-0.716188052633642</v>
       </c>
       <c r="E27">
-        <v>-0.003062416094456819</v>
+        <v>0.1397313246576214</v>
       </c>
       <c r="F27">
-        <v>1.014235738783352</v>
+        <v>-0.9859403778304063</v>
       </c>
       <c r="G27">
-        <v>385.6170091143318</v>
+        <v>8555.908174049811</v>
       </c>
       <c r="H27">
-        <v>464.7378518581818</v>
+        <v>10357.60191476857</v>
       </c>
       <c r="I27">
-        <v>1.593085307179586</v>
+        <v>4.575363331340305</v>
       </c>
       <c r="J27">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28">
-        <v>539.1655459346704</v>
+        <v>10380.73287033661</v>
       </c>
       <c r="C28">
-        <v>600.7716994337637</v>
+        <v>8743.375647896994</v>
       </c>
       <c r="D28">
-        <v>0.002998259286594833</v>
+        <v>-0.005004197162218741</v>
       </c>
       <c r="E28">
-        <v>0.03859212266977379</v>
+        <v>0.1222162885145189</v>
       </c>
       <c r="F28">
-        <v>0.9717820295192598</v>
+        <v>-1.001718011840215</v>
       </c>
       <c r="G28">
-        <v>385.6170091143318</v>
+        <v>8555.908174049811</v>
       </c>
       <c r="H28">
-        <v>464.7378518581818</v>
+        <v>10357.60191476857</v>
       </c>
       <c r="I28">
-        <v>1.593085307179586</v>
+        <v>4.575363331340305</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1192,405 +1192,405 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29">
-        <v>523.2171693857254</v>
+        <v>11097.12085400696</v>
       </c>
       <c r="C29">
-        <v>631.1753253448239</v>
+        <v>9286.107993298652</v>
       </c>
       <c r="D29">
-        <v>-0.6228200387159143</v>
+        <v>-1.06732984595176</v>
       </c>
       <c r="E29">
-        <v>-0.1087888395364423</v>
+        <v>0.3929057833257188</v>
       </c>
       <c r="F29">
-        <v>1.014367373981341</v>
+        <v>-0.913848949814987</v>
       </c>
       <c r="G29">
-        <v>385.3558317521288</v>
+        <v>8539.83665363798</v>
       </c>
       <c r="H29">
-        <v>476.4536910491221</v>
+        <v>10241.04849613268</v>
       </c>
       <c r="I29">
-        <v>1.436835307179586</v>
+        <v>4.308971821906343</v>
       </c>
       <c r="J29">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30">
-        <v>557.2109797184708</v>
+        <v>10683.47761684808</v>
       </c>
       <c r="C30">
-        <v>670.2161580466998</v>
+        <v>12633.28798521613</v>
       </c>
       <c r="D30">
-        <v>-1.251135851164198</v>
+        <v>-2.128634756739221</v>
       </c>
       <c r="E30">
-        <v>-0.4434214352095177</v>
+        <v>0.8247999157866907</v>
       </c>
       <c r="F30">
-        <v>0.8877596916247608</v>
+        <v>-0.615333022000342</v>
       </c>
       <c r="G30">
-        <v>388.4861609279688</v>
+        <v>8447.461561172549</v>
       </c>
       <c r="H30">
-        <v>499.6812058860754</v>
+        <v>10024.62572711737</v>
       </c>
       <c r="I30">
-        <v>1.124335307179586</v>
+        <v>3.776188803038418</v>
       </c>
       <c r="J30">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31">
-        <v>749.8593806949223</v>
+        <v>8237.623606811807</v>
       </c>
       <c r="C31">
-        <v>651.4927466678681</v>
+        <v>10359.90127257885</v>
       </c>
       <c r="D31">
-        <v>-1.870448937248951</v>
+        <v>-3.196926317990431</v>
       </c>
       <c r="E31">
-        <v>-0.8007100561796947</v>
+        <v>0.9925011173732907</v>
       </c>
       <c r="F31">
-        <v>0.6270063336094736</v>
+        <v>0.1080890840765855</v>
       </c>
       <c r="G31">
-        <v>403.6657912821229</v>
+        <v>8163.21187853094</v>
       </c>
       <c r="H31">
-        <v>531.3914682056107</v>
+        <v>9815.367378670511</v>
       </c>
       <c r="I31">
-        <v>0.6555853071795861</v>
+        <v>2.977014274736531</v>
       </c>
       <c r="J31">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32">
-        <v>601.0744160642346</v>
+        <v>12103.02975498915</v>
       </c>
       <c r="C32">
-        <v>597.598470929423</v>
+        <v>14926.1240068013</v>
       </c>
       <c r="D32">
-        <v>-1.873344706944233</v>
+        <v>-3.198900936587443</v>
       </c>
       <c r="E32">
-        <v>-0.9869594913096066</v>
+        <v>0.5875512323300066</v>
       </c>
       <c r="F32">
-        <v>0.1868335091003671</v>
+        <v>0.800970618624438</v>
       </c>
       <c r="G32">
-        <v>431.5338429344816</v>
+        <v>7815.012611732267</v>
       </c>
       <c r="H32">
-        <v>552.8235378948397</v>
+        <v>9873.196515594977</v>
       </c>
       <c r="I32">
-        <v>0.1868353071795861</v>
+        <v>2.177839746434644</v>
       </c>
       <c r="J32">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33">
-        <v>567.1861847297058</v>
+        <v>10058.04870850513</v>
       </c>
       <c r="C33">
-        <v>599.6270228146479</v>
+        <v>12249.25921780121</v>
       </c>
       <c r="D33">
-        <v>-1.872365639930754</v>
+        <v>-3.192789645422135</v>
       </c>
       <c r="E33">
-        <v>-0.9917667169651394</v>
+        <v>-0.1925922339642578</v>
       </c>
       <c r="F33">
-        <v>-0.2494822308272673</v>
+        <v>0.999792477893217</v>
       </c>
       <c r="G33">
-        <v>466.0782686098662</v>
+        <v>7613.664551616193</v>
       </c>
       <c r="H33">
-        <v>559.3538188091903</v>
+        <v>10163.10321983628</v>
       </c>
       <c r="I33">
-        <v>-0.2819146928204139</v>
+        <v>1.378665218132757</v>
       </c>
       <c r="J33">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34">
-        <v>672.0163629120559</v>
+        <v>14606.73683604366</v>
       </c>
       <c r="C34">
-        <v>781.5697244496056</v>
+        <v>12772.65428195066</v>
       </c>
       <c r="D34">
-        <v>-1.873168795983217</v>
+        <v>-3.187681084328723</v>
       </c>
       <c r="E34">
-        <v>-0.7554793509697473</v>
+        <v>-0.9017927231098989</v>
       </c>
       <c r="F34">
-        <v>-0.6650386689992438</v>
+        <v>0.5085375855820566</v>
       </c>
       <c r="G34">
-        <v>499.8467094980854</v>
+        <v>7681.064365848713</v>
       </c>
       <c r="H34">
-        <v>549.573516460012</v>
+        <v>10509.57717775806</v>
       </c>
       <c r="I34">
-        <v>-0.7506646928204139</v>
+        <v>0.5794906898308706</v>
       </c>
       <c r="J34">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35">
-        <v>586.1458449476761</v>
+        <v>12605.35901542871</v>
       </c>
       <c r="C35">
-        <v>569.6714755247908</v>
+        <v>11310.96396923818</v>
       </c>
       <c r="D35">
-        <v>-1.870269338062301</v>
+        <v>-3.194926209212329</v>
       </c>
       <c r="E35">
-        <v>-0.4082881274237011</v>
+        <v>-0.9816430299698667</v>
       </c>
       <c r="F35">
-        <v>-0.9199645650725732</v>
+        <v>-0.214862222127149</v>
       </c>
       <c r="G35">
-        <v>525.5542120056263</v>
+        <v>7976.408022091423</v>
       </c>
       <c r="H35">
-        <v>525.5925609142611</v>
+        <v>10702.86210524531</v>
       </c>
       <c r="I35">
-        <v>-1.219414692820414</v>
+        <v>-0.2196838384710162</v>
       </c>
       <c r="J35">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36">
-        <v>485.4513307547256</v>
+        <v>12544.6426772956</v>
       </c>
       <c r="C36">
-        <v>552.8279269597591</v>
+        <v>9764.12221718326</v>
       </c>
       <c r="D36">
-        <v>-1.864279800779918</v>
+        <v>-3.193708469261057</v>
       </c>
       <c r="E36">
-        <v>0.1213079450278225</v>
+        <v>-0.5329314223333875</v>
       </c>
       <c r="F36">
-        <v>-1.007790396072539</v>
+        <v>-0.8579628586198497</v>
       </c>
       <c r="G36">
-        <v>537.6548297444845</v>
+        <v>8320.89366105885</v>
       </c>
       <c r="H36">
-        <v>492.584426092667</v>
+        <v>10625.94277723364</v>
       </c>
       <c r="I36">
-        <v>4.595020614359172</v>
+        <v>-1.018858366772903</v>
       </c>
       <c r="J36">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37">
-        <v>558.0390429912205</v>
+        <v>10743.99714511885</v>
       </c>
       <c r="C37">
-        <v>651.5300729105887</v>
+        <v>9058.599519687396</v>
       </c>
       <c r="D37">
-        <v>-1.872856893001555</v>
+        <v>-3.204224387354294</v>
       </c>
       <c r="E37">
-        <v>0.5570269140353478</v>
+        <v>0.2667497299866017</v>
       </c>
       <c r="F37">
-        <v>-0.8187984562010144</v>
+        <v>-0.9333873804518958</v>
       </c>
       <c r="G37">
-        <v>533.5380649729304</v>
+        <v>8505.968732382678</v>
       </c>
       <c r="H37">
-        <v>457.6700427832315</v>
+        <v>10325.3863658047</v>
       </c>
       <c r="I37">
-        <v>4.126270614359172</v>
+        <v>4.465152412104796</v>
       </c>
       <c r="J37">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38">
-        <v>619.6894530045324</v>
+        <v>9436.045404353335</v>
       </c>
       <c r="C38">
-        <v>637.3101360544554</v>
+        <v>11629.8134115861</v>
       </c>
       <c r="D38">
-        <v>-1.872131034448337</v>
+        <v>-3.19684578860439</v>
       </c>
       <c r="E38">
-        <v>0.8565893260260565</v>
+        <v>0.8720905654698328</v>
       </c>
       <c r="F38">
-        <v>-0.5226010340978889</v>
+        <v>-0.5058517812269414</v>
       </c>
       <c r="G38">
-        <v>514.0920380639318</v>
+        <v>8419.588280430282</v>
       </c>
       <c r="H38">
-        <v>428.3815817188976</v>
+        <v>9983.150546526442</v>
       </c>
       <c r="I38">
-        <v>3.657520614359172</v>
+        <v>3.665977883802909</v>
       </c>
       <c r="J38">
-        <v>-1.875</v>
+        <v>-3.196698113207547</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39">
-        <v>503.0235234604078</v>
+        <v>8299.702616986579</v>
       </c>
       <c r="C39">
-        <v>617.0693761401882</v>
+        <v>10330.30385150038</v>
       </c>
       <c r="D39">
-        <v>-1.245419589340756</v>
+        <v>-2.123728149419823</v>
       </c>
       <c r="E39">
-        <v>0.986416360740586</v>
+        <v>0.9712863462896787</v>
       </c>
       <c r="F39">
-        <v>-0.1838337659979905</v>
+        <v>0.02531635107023737</v>
       </c>
       <c r="G39">
-        <v>493.7052733458811</v>
+        <v>8215.894271915602</v>
       </c>
       <c r="H39">
-        <v>416.8188731010674</v>
+        <v>9865.334064014563</v>
       </c>
       <c r="I39">
-        <v>3.345020614359172</v>
+        <v>3.133194864934985</v>
       </c>
       <c r="J39">
-        <v>-1.25</v>
+        <v>-2.131132075471698</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40">
-        <v>491.3414177651815</v>
+        <v>8476.51224400572</v>
       </c>
       <c r="C40">
-        <v>607.6839477539467</v>
+        <v>10646.26480475545</v>
       </c>
       <c r="D40">
-        <v>-0.6290032656090109</v>
+        <v>-1.058919897868169</v>
       </c>
       <c r="E40">
-        <v>0.9990369126285993</v>
+        <v>0.9903427470667983</v>
       </c>
       <c r="F40">
-        <v>-0.07767962609405084</v>
+        <v>0.2716017372911437</v>
       </c>
       <c r="G40">
-        <v>482.2281664298372</v>
+        <v>8098.242170618508</v>
       </c>
       <c r="H40">
-        <v>414.4513599754023</v>
+        <v>9866.322104722643</v>
       </c>
       <c r="I40">
-        <v>3.188770614359172</v>
+        <v>2.866803355501022</v>
       </c>
       <c r="J40">
-        <v>-0.625</v>
+        <v>-1.065566037735849</v>
       </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41">
-        <v>473.7120097376447</v>
+        <v>9106.448844688955</v>
       </c>
       <c r="C41">
-        <v>584.6791265985836</v>
+        <v>11328.56513364613</v>
       </c>
       <c r="D41">
-        <v>-0.3062591484085934</v>
+        <v>-0.5310532488645298</v>
       </c>
       <c r="E41">
-        <v>1.035229140380957</v>
+        <v>0.9204741854906884</v>
       </c>
       <c r="F41">
-        <v>0.0001660805235211699</v>
+        <v>0.3795042056265122</v>
       </c>
       <c r="G41">
-        <v>476.3753110016507</v>
+        <v>8041.621136167937</v>
       </c>
       <c r="H41">
-        <v>414.1750291458276</v>
+        <v>9882.284772067513</v>
       </c>
       <c r="I41">
-        <v>3.110645614359172</v>
+        <v>2.733607600784041</v>
       </c>
       <c r="J41">
-        <v>-0.3125</v>
+        <v>-0.5327830188679246</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42">
-        <v>452.896970809732</v>
+        <v>8557.414516953078</v>
       </c>
       <c r="C42">
-        <v>563.2150147191371</v>
+        <v>10755.64727900995</v>
       </c>
       <c r="D42">
-        <v>0.00926633406654373</v>
+        <v>-0.006490848202375491</v>
       </c>
       <c r="E42">
-        <v>0.9755560400587228</v>
+        <v>0.9293795287073001</v>
       </c>
       <c r="F42">
-        <v>0.04317592933782187</v>
+        <v>0.3430737575033856</v>
       </c>
       <c r="G42">
-        <v>476.3753110016507</v>
+        <v>8041.621136167937</v>
       </c>
       <c r="H42">
-        <v>414.1750291458276</v>
+        <v>9882.284772067513</v>
       </c>
       <c r="I42">
-        <v>3.110645614359172</v>
+        <v>2.733607600784041</v>
       </c>
       <c r="J42">
         <v>0</v>
